--- a/Juni_2020/pages (1).xlsx
+++ b/Juni_2020/pages (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6071A387-9797-4FAB-AD71-E44D99B95311}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70F154C1-CCC7-4AA7-8C4E-BB402F12712F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="1174">
   <si>
     <t>Page</t>
   </si>
@@ -3547,6 +3547,9 @@
   </si>
   <si>
     <t>Gesamtergebnis</t>
+  </si>
+  <si>
+    <t>deleted</t>
   </si>
 </sst>
 </file>
@@ -4103,7 +4106,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4131,6 +4134,46 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12065,8 +12108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A239" sqref="A239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12182,7 +12225,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -12602,7 +12645,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B16">
         <v>14</v>
@@ -12637,7 +12680,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B17">
         <v>15</v>
@@ -12672,7 +12715,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="B18">
         <v>16</v>
@@ -12707,7 +12750,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="B19">
         <v>17</v>
@@ -12742,7 +12785,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B20">
         <v>18</v>
@@ -12777,7 +12820,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B21">
         <v>19</v>
@@ -12812,7 +12855,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B22">
         <v>20</v>
@@ -12847,7 +12890,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B23">
         <v>21</v>
@@ -12882,7 +12925,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B24">
         <v>22</v>
@@ -12917,7 +12960,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B25">
         <v>23</v>
@@ -13442,7 +13485,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B40">
         <v>38</v>
@@ -13477,7 +13520,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B41">
         <v>39</v>
@@ -22787,7 +22830,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A307" t="s">
-        <v>1165</v>
+        <v>1169</v>
       </c>
       <c r="B307">
         <v>305</v>
@@ -25692,7 +25735,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A390" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B390">
         <v>388</v>
@@ -27372,14 +27415,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"checked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"to_check"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"not_completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"deleted"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -27394,10 +27440,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27440,6 +27486,11 @@
         <v>1169</v>
       </c>
     </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>1173</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Juni_2020/pages (1).xlsx
+++ b/Juni_2020/pages (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70F154C1-CCC7-4AA7-8C4E-BB402F12712F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{590FC1E0-65A1-48F2-9612-66E275203448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1"/>
   </bookViews>
@@ -12108,8 +12108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -12995,7 +12995,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B26">
         <v>24</v>
@@ -13030,7 +13030,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B27">
         <v>25</v>
@@ -13065,7 +13065,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B28">
         <v>26</v>
@@ -13100,7 +13100,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B29">
         <v>27</v>
@@ -13135,7 +13135,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B30">
         <v>28</v>
@@ -13170,7 +13170,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B31">
         <v>29</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B32">
         <v>30</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B33">
         <v>31</v>
@@ -13275,7 +13275,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B34">
         <v>32</v>
@@ -13310,7 +13310,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B35">
         <v>33</v>
@@ -13345,7 +13345,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B36">
         <v>34</v>
@@ -13380,7 +13380,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B37">
         <v>35</v>
@@ -13415,7 +13415,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B38">
         <v>36</v>
@@ -13450,7 +13450,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B39">
         <v>37</v>
@@ -13555,7 +13555,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B42">
         <v>40</v>
@@ -13590,7 +13590,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B43">
         <v>41</v>
@@ -13625,7 +13625,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B44">
         <v>42</v>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B45">
         <v>43</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B46">
         <v>44</v>
@@ -13730,7 +13730,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B47">
         <v>45</v>
@@ -13765,7 +13765,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B48">
         <v>46</v>
@@ -13800,7 +13800,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B49">
         <v>47</v>
@@ -13835,7 +13835,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B50">
         <v>48</v>
@@ -13870,7 +13870,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B51">
         <v>49</v>
@@ -13905,7 +13905,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B52">
         <v>50</v>
@@ -13940,7 +13940,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B53">
         <v>51</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B54">
         <v>52</v>
@@ -14010,7 +14010,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B55">
         <v>53</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B56">
         <v>54</v>
@@ -14080,7 +14080,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B58">
         <v>56</v>
@@ -14150,7 +14150,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B59">
         <v>57</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B60">
         <v>58</v>
@@ -14220,7 +14220,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B61">
         <v>59</v>
@@ -14255,7 +14255,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B62">
         <v>60</v>
@@ -14290,7 +14290,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B63">
         <v>61</v>
@@ -14325,7 +14325,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B64">
         <v>62</v>
@@ -14360,7 +14360,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B65">
         <v>63</v>
@@ -14395,7 +14395,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B66">
         <v>64</v>
@@ -14430,7 +14430,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B67">
         <v>65</v>
@@ -14465,7 +14465,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B68">
         <v>66</v>
@@ -14500,7 +14500,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B69">
         <v>67</v>
@@ -14535,7 +14535,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B70">
         <v>68</v>

--- a/Juni_2020/pages (1).xlsx
+++ b/Juni_2020/pages (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{590FC1E0-65A1-48F2-9612-66E275203448}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A70674C-C594-4283-B3F3-007C1434AF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1"/>
   </bookViews>
@@ -4106,7 +4106,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4164,36 +4164,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12108,8 +12078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14570,7 +14540,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B71">
         <v>69</v>
@@ -14605,7 +14575,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B72">
         <v>70</v>
@@ -14640,7 +14610,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B73">
         <v>71</v>
@@ -14675,7 +14645,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B74">
         <v>72</v>
@@ -14710,7 +14680,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B75">
         <v>73</v>
@@ -14745,7 +14715,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B76">
         <v>74</v>
@@ -14780,7 +14750,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B77">
         <v>75</v>
@@ -14815,7 +14785,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B78">
         <v>76</v>
@@ -14850,7 +14820,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B79">
         <v>77</v>

--- a/Juni_2020/pages (1).xlsx
+++ b/Juni_2020/pages (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anne\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2A70674C-C594-4283-B3F3-007C1434AF2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D63E5E9-6B59-41D3-821F-A151A3F7114A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4393" uniqueCount="1174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4394" uniqueCount="1175">
   <si>
     <t>Page</t>
   </si>
@@ -3550,6 +3550,9 @@
   </si>
   <si>
     <t>deleted</t>
+  </si>
+  <si>
+    <t>not in use</t>
   </si>
 </sst>
 </file>
@@ -4106,7 +4109,7 @@
     <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4134,6 +4137,23 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12078,8 +12098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14855,7 +14875,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B80">
         <v>78</v>
@@ -14890,7 +14910,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B81">
         <v>79</v>
@@ -14925,7 +14945,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B82">
         <v>80</v>
@@ -14960,7 +14980,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>1165</v>
+        <v>1174</v>
       </c>
       <c r="B83">
         <v>81</v>
@@ -14995,7 +15015,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B84">
         <v>82</v>
@@ -15030,7 +15050,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B85">
         <v>83</v>
@@ -15065,7 +15085,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B86">
         <v>84</v>
@@ -15100,7 +15120,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B87">
         <v>85</v>
@@ -15135,7 +15155,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B88">
         <v>86</v>
@@ -15170,7 +15190,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B89">
         <v>87</v>
@@ -15205,7 +15225,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B90">
         <v>88</v>
@@ -15240,7 +15260,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B91">
         <v>89</v>
@@ -15275,7 +15295,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B92">
         <v>90</v>
@@ -15310,7 +15330,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="B93">
         <v>91</v>
@@ -15345,7 +15365,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B94">
         <v>92</v>
@@ -15380,7 +15400,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B95">
         <v>93</v>
@@ -15415,7 +15435,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B96">
         <v>94</v>
@@ -15450,7 +15470,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B97">
         <v>95</v>
@@ -15485,7 +15505,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B98">
         <v>96</v>
@@ -15520,7 +15540,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
       <c r="B99">
         <v>97</v>
@@ -27385,17 +27405,20 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"checked"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"to_check"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"not_completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"deleted"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"not in use"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -27410,10 +27433,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27461,6 +27484,11 @@
         <v>1173</v>
       </c>
     </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>1174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
